--- a/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>105</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>10</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>18</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>36</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>62</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>34</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>24</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>96</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>52</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>12</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>10</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>40</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>28</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>105</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>66</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>120</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>148</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>22</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>46</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>34</v>

--- a/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -669,7 +670,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -767,6 +768,495 @@
       </c>
       <c r="B13" t="n">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.638268051100155</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.15240943972568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-10.20756827551194</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.14598864586915</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.624825912384008</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.07935835853147</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.672291485610213</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.74933779034938</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.844192257393384</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61.46274189131418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.77235668766766</v>
+      </c>
+      <c r="D7" t="n">
+        <v>63.76462909841526</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.1163786217858</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.26860499263336</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10.99203433545378</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.67096506437193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-12.89810431913743</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59.59058756818318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.610195313638316</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60.85947221128671</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.09680687036047</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60.43481242367945</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.295710847413</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.19208906112828</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.0079293889472</v>
+      </c>
+      <c r="D14" t="n">
+        <v>59.96500888550218</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-10.90121448246101</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61.03462750014179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-13.09560967576719</v>
+      </c>
+      <c r="D16" t="n">
+        <v>59.98664345099824</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-11.80268324854338</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59.30640131732664</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-14.02513056969536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60.9738988188676</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-13.86759305366119</v>
+      </c>
+      <c r="D19" t="n">
+        <v>57.51486018704174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-16.60052909824957</v>
+      </c>
+      <c r="D20" t="n">
+        <v>55.81537898984726</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-14.69181573517072</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61.66936717342635</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-17.76524775076977</v>
+      </c>
+      <c r="D22" t="n">
+        <v>57.61205414919857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-16.53515966867629</v>
+      </c>
+      <c r="D23" t="n">
+        <v>58.81049910758249</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.71170869458271</v>
+      </c>
+      <c r="D24" t="n">
+        <v>54.51453864075712</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-16.04429444589852</v>
+      </c>
+      <c r="D25" t="n">
+        <v>58.26248093589494</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-19.55095724937767</v>
+      </c>
+      <c r="D26" t="n">
+        <v>56.50793095517382</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-17.04097639001375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>57.28556037254592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-13.40586321213311</v>
+      </c>
+      <c r="D28" t="n">
+        <v>58.37039596217429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.83587694146827</v>
+      </c>
+      <c r="D29" t="n">
+        <v>57.33500337332152</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-14.7354208707975</v>
+      </c>
+      <c r="D30" t="n">
+        <v>56.34774101562561</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-17.6947861897221</v>
+      </c>
+      <c r="D31" t="n">
+        <v>56.86128231670242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-17.01280849885342</v>
+      </c>
+      <c r="D32" t="n">
+        <v>55.21898307256797</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-14.92947158741028</v>
+      </c>
+      <c r="D33" t="n">
+        <v>55.55357017369288</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,16 +800,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -818,12 +808,6 @@
       <c r="B2" t="n">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>-9.638268051100155</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.15240943972568</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,12 +816,6 @@
       <c r="B3" t="n">
         <v>26</v>
       </c>
-      <c r="C3" t="n">
-        <v>-10.20756827551194</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.14598864586915</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,12 +824,6 @@
       <c r="B4" t="n">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>-8.624825912384008</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.07935835853147</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -860,12 +832,6 @@
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
-        <v>-9.672291485610213</v>
-      </c>
-      <c r="D5" t="n">
-        <v>59.74933779034938</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -874,12 +840,6 @@
       <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.844192257393384</v>
-      </c>
-      <c r="D6" t="n">
-        <v>61.46274189131418</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,12 +848,6 @@
       <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>-11.77235668766766</v>
-      </c>
-      <c r="D7" t="n">
-        <v>63.76462909841526</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -902,12 +856,6 @@
       <c r="B8" t="n">
         <v>25</v>
       </c>
-      <c r="C8" t="n">
-        <v>-10.1163786217858</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61.26860499263336</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -916,12 +864,6 @@
       <c r="B9" t="n">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
-        <v>-10.99203433545378</v>
-      </c>
-      <c r="D9" t="n">
-        <v>59.67096506437193</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,12 +872,6 @@
       <c r="B10" t="n">
         <v>24</v>
       </c>
-      <c r="C10" t="n">
-        <v>-12.89810431913743</v>
-      </c>
-      <c r="D10" t="n">
-        <v>59.59058756818318</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -944,12 +880,6 @@
       <c r="B11" t="n">
         <v>24</v>
       </c>
-      <c r="C11" t="n">
-        <v>-9.610195313638316</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60.85947221128671</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -958,12 +888,6 @@
       <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
-        <v>-14.09680687036047</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60.43481242367945</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -972,12 +896,6 @@
       <c r="B13" t="n">
         <v>24</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.295710847413</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60.19208906112828</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -986,12 +904,6 @@
       <c r="B14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
-        <v>-13.0079293889472</v>
-      </c>
-      <c r="D14" t="n">
-        <v>59.96500888550218</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1000,12 +912,6 @@
       <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="C15" t="n">
-        <v>-10.90121448246101</v>
-      </c>
-      <c r="D15" t="n">
-        <v>61.03462750014179</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1014,12 +920,6 @@
       <c r="B16" t="n">
         <v>23</v>
       </c>
-      <c r="C16" t="n">
-        <v>-13.09560967576719</v>
-      </c>
-      <c r="D16" t="n">
-        <v>59.98664345099824</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1028,12 +928,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>-11.80268324854338</v>
-      </c>
-      <c r="D17" t="n">
-        <v>59.30640131732664</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1042,12 +936,6 @@
       <c r="B18" t="n">
         <v>22</v>
       </c>
-      <c r="C18" t="n">
-        <v>-14.02513056969536</v>
-      </c>
-      <c r="D18" t="n">
-        <v>60.9738988188676</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1056,12 +944,6 @@
       <c r="B19" t="n">
         <v>22</v>
       </c>
-      <c r="C19" t="n">
-        <v>-13.86759305366119</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57.51486018704174</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1070,12 +952,6 @@
       <c r="B20" t="n">
         <v>22</v>
       </c>
-      <c r="C20" t="n">
-        <v>-16.60052909824957</v>
-      </c>
-      <c r="D20" t="n">
-        <v>55.81537898984726</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1084,12 +960,6 @@
       <c r="B21" t="n">
         <v>22</v>
       </c>
-      <c r="C21" t="n">
-        <v>-14.69181573517072</v>
-      </c>
-      <c r="D21" t="n">
-        <v>61.66936717342635</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1098,12 +968,6 @@
       <c r="B22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>-17.76524775076977</v>
-      </c>
-      <c r="D22" t="n">
-        <v>57.61205414919857</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1112,12 +976,6 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="n">
-        <v>-16.53515966867629</v>
-      </c>
-      <c r="D23" t="n">
-        <v>58.81049910758249</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1126,12 +984,6 @@
       <c r="B24" t="n">
         <v>21</v>
       </c>
-      <c r="C24" t="n">
-        <v>-14.71170869458271</v>
-      </c>
-      <c r="D24" t="n">
-        <v>54.51453864075712</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1140,12 +992,6 @@
       <c r="B25" t="n">
         <v>20</v>
       </c>
-      <c r="C25" t="n">
-        <v>-16.04429444589852</v>
-      </c>
-      <c r="D25" t="n">
-        <v>58.26248093589494</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1154,12 +1000,6 @@
       <c r="B26" t="n">
         <v>20</v>
       </c>
-      <c r="C26" t="n">
-        <v>-19.55095724937767</v>
-      </c>
-      <c r="D26" t="n">
-        <v>56.50793095517382</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1168,12 +1008,6 @@
       <c r="B27" t="n">
         <v>20</v>
       </c>
-      <c r="C27" t="n">
-        <v>-17.04097639001375</v>
-      </c>
-      <c r="D27" t="n">
-        <v>57.28556037254592</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1182,12 +1016,6 @@
       <c r="B28" t="n">
         <v>20</v>
       </c>
-      <c r="C28" t="n">
-        <v>-13.40586321213311</v>
-      </c>
-      <c r="D28" t="n">
-        <v>58.37039596217429</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1196,12 +1024,6 @@
       <c r="B29" t="n">
         <v>20</v>
       </c>
-      <c r="C29" t="n">
-        <v>-15.83587694146827</v>
-      </c>
-      <c r="D29" t="n">
-        <v>57.33500337332152</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1210,12 +1032,6 @@
       <c r="B30" t="n">
         <v>20</v>
       </c>
-      <c r="C30" t="n">
-        <v>-14.7354208707975</v>
-      </c>
-      <c r="D30" t="n">
-        <v>56.34774101562561</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1224,12 +1040,6 @@
       <c r="B31" t="n">
         <v>20</v>
       </c>
-      <c r="C31" t="n">
-        <v>-17.6947861897221</v>
-      </c>
-      <c r="D31" t="n">
-        <v>56.86128231670242</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1238,12 +1048,6 @@
       <c r="B32" t="n">
         <v>19</v>
       </c>
-      <c r="C32" t="n">
-        <v>-17.01280849885342</v>
-      </c>
-      <c r="D32" t="n">
-        <v>55.21898307256797</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1251,12 +1055,6 @@
       </c>
       <c r="B33" t="n">
         <v>19</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-14.92947158741028</v>
-      </c>
-      <c r="D33" t="n">
-        <v>55.55357017369288</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSZ6VCS7_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -654,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +794,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -781,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,7 +838,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +846,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +854,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -830,7 +862,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -838,7 +870,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -846,7 +878,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -894,7 +926,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -902,7 +934,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -910,7 +942,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -918,7 +950,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +958,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -934,7 +966,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -942,7 +974,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -950,7 +982,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -958,7 +990,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -966,7 +998,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -974,7 +1006,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -982,7 +1014,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -990,71 +1022,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
